--- a/TNR_PREJDD/RO/PREJDD.RO.MET.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.MET.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mg7op8ws/q6bzUMax1O2uPB8BpsOA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mie0DpZWG03A0yHJ/0jhVMqk32+8g=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -58,34 +58,37 @@
     <t>RO.ACT.003MET.SRA.01</t>
   </si>
   <si>
-    <t>RO.ACT.003MET.SRA.01.1</t>
+    <t>MET.RO.ACT.003MET.SRA.01.1</t>
   </si>
   <si>
     <t>$NULL</t>
   </si>
   <si>
-    <t>RO.ACT.003MET.SRA.01.2</t>
+    <t>MET.RO.ACT.003MET.SRA.01.2</t>
   </si>
   <si>
     <t>RO.ACT.003MET.SRM.01</t>
   </si>
   <si>
-    <t>RO.ACT.003MET.SRM.01.1</t>
+    <t>MET.RO.ACT.003MET.SRM.01.1</t>
   </si>
   <si>
-    <t>RO.ACT.003MET.SRM.01.2</t>
+    <t>MET.RO.ACT.003MET.SRM.01.2</t>
   </si>
   <si>
     <t>RO.ACT.003MET.SRS.01</t>
   </si>
   <si>
-    <t>RO.ACT.003MET.SRS.01.1</t>
+    <t>MET.RO.ACT.003MET.SRS.01.1</t>
   </si>
   <si>
-    <t>RO.ACT.003MET.SRS.01.2</t>
+    <t>MET.RO.ACT.003MET.SRS.01.2</t>
   </si>
   <si>
     <t>RO.ACT.003MET.SRL.01</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRL.01</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -213,9 +216,7 @@
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1585,7 +1586,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.63"/>
-    <col customWidth="1" min="2" max="3" width="22.0"/>
+    <col customWidth="1" min="2" max="2" width="32.75"/>
+    <col customWidth="1" min="3" max="3" width="22.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1691,10 +1693,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>14</v>
